--- a/calendrier_blagues_anniv_2024.xlsx
+++ b/calendrier_blagues_anniv_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://8advisory-my.sharepoint.com/personal/aina_rabesandratana_8advisory_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://8advisory-my.sharepoint.com/personal/aina_rabesandratana_8advisory_com/Documents/Code Python/Polo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8598E1B6-B5D5-4BD9-889D-3782D241382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{8598E1B6-B5D5-4BD9-889D-3782D241382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B8FBB6A-7238-492A-BA49-81329DA221CA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>Date</t>
   </si>
@@ -65,25 +65,10 @@
     <t>Que fait une fraise sur un cheval ? Tagada tagada.</t>
   </si>
   <si>
-    <t>Pourquoi les vampires n’aiment pas l’ail ? Parce que ça leur donne la chair de poule.</t>
-  </si>
-  <si>
-    <t>Quelle est la lettre la plus propre ? Le K, parce qu’il se lave (K-lave).</t>
-  </si>
-  <si>
     <t>Pourquoi la photo était en prison ? Parce qu’elle était trop exposée.</t>
   </si>
   <si>
     <t>Quel est le comble pour un facteur ? Perdre sa lettre de motivation.</t>
-  </si>
-  <si>
-    <t>Pourquoi les poissons détestent l’ordinateur ? À cause de la souris.</t>
-  </si>
-  <si>
-    <t>Que dit une imprimante à l’autre ? « T’as une feuille ? Faut que je t’imprime un truc ! »</t>
-  </si>
-  <si>
-    <t>Pourquoi les escargots ne sortent jamais sans leur maison ? Parce qu’ils ont peur de se faire flasher nu.</t>
   </si>
   <si>
     <t>🎉 JOYEUX ANNIVERSAIRE MON POLO ! 🎉
@@ -91,6 +76,1214 @@
 Blague du jour : Pourquoi les anniversaires sont comme la pizza ? Même quand c’est simple, c’est toujours une bonne idée.
 Autre blague : Que dit une bougie à une autre bougie ? « On s’éteint ce soir ? »
 Profite bien de ta journée, légende. 🥳</t>
+  </si>
+  <si>
+    <t>Quel est le sport le plus silencieux ?  Le paraCHUTe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment dorment les boxeurs ? A poings fermés </t>
+  </si>
+  <si>
+    <t>Pourquoi les fromages détestent l’ordinateur ? À cause de la souris.</t>
+  </si>
+  <si>
+    <t>Quel animal peut lire l’avenir ? La poule de cristal !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savez-vous quelle est la différence entre un fonctionnaire et un chômeur ?
+Un chômeur, lui, a déjà travaillé </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce que j’ai en commun avec mon mari ?
+On s’est mariés le même jour. </t>
+  </si>
+  <si>
+    <t>Quelle est la différence entre le 51 et le 69 ? Le 51 sent l’anis</t>
+  </si>
+  <si>
+    <t>Que fait une fraise sur un cheval ? Tagada Tagada Tagada</t>
+  </si>
+  <si>
+    <t>– Monsieur, savez-vous que votre chien aboie toute la nuit ? – Oh, c’est pas grave, il dort toute la journée !</t>
+  </si>
+  <si>
+    <t>Pourquoi doit-on dire les souris ni ni ? Parce que les rats gna gna</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’une duche ? C’est une douche sans O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi les arbres puent ?
+Parce que les troncs pètent… </t>
+  </si>
+  <si>
+    <t>Que disent des arbres quand ils vont en boite de nuit ? Laquelle je vais brancher ?</t>
+  </si>
+  <si>
+    <t>C’est l’histoire d’un schtroumpf qui tombe Et qui se fait un bleu…</t>
+  </si>
+  <si>
+    <t>Comment dit-on ménopause en anglais ? Game Ovaire</t>
+  </si>
+  <si>
+    <t>Comment est-ce qu’on appelle des testicules de dauphin ? Des boules de Flipper</t>
+  </si>
+  <si>
+    <t>Quel président bande 2 fois le matin ? Charles De Gaulle</t>
+  </si>
+  <si>
+    <t>Quelle est la date d’anniversaire de tous les chats ? C’est la mi-août…</t>
+  </si>
+  <si>
+    <t>Vous connaissez l’histoire du lit vertical? Elle est à dormir debout !</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qui est rose et dur en rentrant, et chaud et mou en ressortant ? Un Malabar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quel parc les gens tremblent ?
+Au parkinson </t>
+  </si>
+  <si>
+    <t>Quel est le prêtre qui adore la moto ? L’abbé Canne</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’une luciole qui prend du viagra ? Un néon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la différence entre Jeanne Calment et Diana ?
+La première est morte à 120 tandis que l’autre est morte à 150 </t>
+  </si>
+  <si>
+    <t>Tu connais l’histoire du castré décapité ? C’est une histoire sans queue ni tête !</t>
+  </si>
+  <si>
+    <t>Tu sais pourquoi je ne supporte plus les blagues sur le covid ? Parce que j’ai eu ma dose</t>
+  </si>
+  <si>
+    <t>Que faire pour sauver la vie d’une mouche qui se noie ? Du mouche à mouche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est-ce qui est jaune et qui attend ?
+Jonathan </t>
+  </si>
+  <si>
+    <t>Pourquoi les chiens se lèchent-ils le sexe ? Car ils peuvent….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi un plongeur plonge-t-il toujours en arrière ?
+Parce que s’il plonge en avant il tombe dans le bateau </t>
+  </si>
+  <si>
+    <t>Deux œufs discutent : – Pourquoi t’es tout vert et aussi poilu ?
+– Parce que j’suis un kiwi abruti !</t>
+  </si>
+  <si>
+    <t>Un jour, Dieu a dit « Hélène, tu vas t’égarer » Et Hélène Ségara…</t>
+  </si>
+  <si>
+    <t>C’est l’histoire d’un oiseau qui mange que la moitié de ses graines Du coup, il a des migraines</t>
+  </si>
+  <si>
+    <t>Quel est l’ami du feu ? Le pot-au-feu</t>
+  </si>
+  <si>
+    <t>Comment reconnaître un ministre qui ment ? Ses lèvres bougent</t>
+  </si>
+  <si>
+    <t>Un portugais ne chuchote pas Il murmure</t>
+  </si>
+  <si>
+    <t>Quel est le point commun entre un roi et un taureau ? Tous les deux rentrent dans l’arène</t>
+  </si>
+  <si>
+    <t>Un hippie n’urine pas… Il peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi les girafes ont un grand cou ?
+Parce qu’elles puent des pieds </t>
+  </si>
+  <si>
+    <t>Quel est le comble pour un rugbyman ? C’est de se faire plaquer par sa copine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que dit une ampoule qui revoit une autre ampoule après plusieurs années ?
+Ça fait des lustres ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi le ciel est si haut ?
+Pour que les oiseaux ne se cognent pas la tête </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment appelle-t-on les reptiles qui pratiquent le karaté ?
+Lézards Martiaux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est-ce qui est petit et marron ?
+Un marron. </t>
+  </si>
+  <si>
+    <t>Qu’est ce qui est transparent et qui cours dans les champs ? Un troupeau de vitres.</t>
+  </si>
+  <si>
+    <t>Quelle est la différence entre un dollar américain et un rouble ? – Un dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que dit un zéro quand il rencontre un huit ?
+« T’as mis une ceinture ? » </t>
+  </si>
+  <si>
+    <t>On ne dit pas Hélène Ségara Mais Hélène est perdue</t>
+  </si>
+  <si>
+    <t>Quelle est la ville la plus proche de l’eau ? Bordeaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est l’histoire d’un zoophile qui prend son élan… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment s’appelle le mexicain debout à côté du bar ?
+Pedro Sanchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel dinosaure peut aller au micro-ondes ?
+Le Pyrex </t>
+  </si>
+  <si>
+    <t>Comment appelle-t-on un ascenseur en Amérique ? En appuyant sur le bouton…</t>
+  </si>
+  <si>
+    <t>« Chéri, je me sens grosse et laide…S’il te plait, fais-moi un compliment… « Oh, tu as une bonne vue !</t>
+  </si>
+  <si>
+    <t>Une mouette mange un sandwich. Une autre arrive : On fait mouette-mouette ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qui a déposé des légumes dans le bac à bières ? </t>
+  </si>
+  <si>
+    <t>C’est l’histoire d’une femme dans le désert Qui a l’air d’une gourde…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un homme est arrêté pour vol de voiture….
+Mais sera libéré 2 ans plus tard pour bonne conduite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connais-tu la blagues du chauffeur d’autobus ?
+Moi non plus j’étais derrière </t>
+  </si>
+  <si>
+    <t>Que s’est-il passé en 1111 ? L’invasion des huns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi les vieux font-ils des bains de boue ?
+Pour s’habituer à la terre… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le contraire d’un chat ?
+Un pacha. </t>
+  </si>
+  <si>
+    <t>Pourquoi les manchots ne sont pas feignants ? Parce qu’ils ne remettent jamais les choses à demain</t>
+  </si>
+  <si>
+    <t>2 grains de sable dans le désert : – Te retourne pas, mais je crois qu’on est suivi</t>
+  </si>
+  <si>
+    <t>Qu’est-ce que 2 canards qui se battent ? Un conflit de canard</t>
+  </si>
+  <si>
+    <t>Que disent les maitres nageurs à nouvel an ? Bonne apnée !</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’une p*te au régime ? Une grosse p*te</t>
+  </si>
+  <si>
+    <t>Que dit Pinocchio quand il pète devant tout le monde ? Désolé, Gepetto</t>
+  </si>
+  <si>
+    <t>Alors, ça fait combien de temps qu’il marche votre petit Julien ? – Ça va faire 6 mois.</t>
+  </si>
+  <si>
+    <t>Un mec sur leboncoin veut vendre son SPA. Mais personne ne l’achète. Pourquoi ? Il a écrit SPA à vendre…</t>
+  </si>
+  <si>
+    <t>Que fait-on aux voleurs de salades ? On les tue…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsqu’un curé se fait arrêter par la police
+Est-ce qu’on peut dire qu’il est dans la Moïse ? </t>
+  </si>
+  <si>
+    <t>Pourquoi les fonctionnaires font leurs manifs en défilant de la République à la Bastille ? Parce que c’est en descente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la différence entre un boucher et un marin ?
+Le boucher voit le porc avant les cotes </t>
+  </si>
+  <si>
+    <t>Quelle est l’armée la plus polie ? L’armée du Salut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si vous aviez le choix entre : La fortune de Bill Gates et la paix dans le monde,
+de quelle couleur serait votre Ferrari ? </t>
+  </si>
+  <si>
+    <t>Chéri, tu préfères une femme intelligente ou une belle femme ? – Ni l’un ni l’autre chérie, tu sais bien que je n’aime que toi !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De quelle couleur est la voiture de John Travolta?
+Elle est grease ! </t>
+  </si>
+  <si>
+    <t>Quel est le pays le plus cool du monde ? Le Yémen</t>
+  </si>
+  <si>
+    <t>Un jour, Dieu ordonna de tuer Zani Et Panzani !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le liquide vaisselle le plus musclé ?
+Le Paic Citron </t>
+  </si>
+  <si>
+    <t>Thomas, penses-tu que je suis une mauvaise mère ? Mon nom est Paul</t>
+  </si>
+  <si>
+    <t>Quelle est la femme la plus rapide du monde ? Laurence Ferrari</t>
+  </si>
+  <si>
+    <t>Quand un électricien meurt… Il faut mettre sa famille au courant</t>
+  </si>
+  <si>
+    <t>Quel est le point commun entre Didier Bourdon et Passe partout ? Didier Bourdon est un inconnu, Passe Partout aussi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est-ce que fait un pou dans une cloche ?
+Pou Ding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la boisson préférée de Rihanna ?
+Rhum pomme pomme pomme, Rhum pomme pomme pomme.. </t>
+  </si>
+  <si>
+    <t>Combien d’oeufs est-il possible de manger à jeun ? Un seul</t>
+  </si>
+  <si>
+    <t>Est-ce que si un africain me prend par les sentiments On dit qu’il m’amadoue ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi l’idiot se frappe la tête sur le mur ?
+Parce que ça lui fait du bien quand il arrête </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Où a été signé le traité de Versailles ?
+En bas de la feuille </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment on appelle une fille qui aime les pommes ?
+Une Pom-Pom girl </t>
+  </si>
+  <si>
+    <t>Avec quoi paye-t-on à Prague ? Avec un carnet Tchèque</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un nord-gasme ? Un orgasme avec quelqu’un de sa famille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deux gars discutent:
+– Tu ferais quoi si aujourd’hui c’était la fin du monde?
+– Moi je tirerais tout ce qui bouge et toi?
+– Moi je bougerais pas… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est ce qu’un chat qui habrite beaucoup de personnes ?
+Un chapiteau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce n’est pas parce que 2 chauves discutent, qu’ils sont de mèches ! </t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un comptable ? – C’est un con avec une table.</t>
+  </si>
+  <si>
+    <t>Que fait un crocodile lorsqu’il rencontre une crocodile ? Il l’accoste !</t>
+  </si>
+  <si>
+    <t>– Papa il y a quelqu’un a la porte avec une moustache. – Dis-lui que j’en ai déjà une.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel fruit le poisson déteste-il le plus ?
+La pêche </t>
+  </si>
+  <si>
+    <t>Que dit un hibou à sa femme à nouvel an ? Je te chouette une bonne année</t>
+  </si>
+  <si>
+    <t>C’est un putois qui rencontre un autre putois Et qui lui dit : « Tu pues toi »</t>
+  </si>
+  <si>
+    <t>Que crie un donut sur la plage ? Hey, je vais me beignet !!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une maman Kangourou demande à son fils : Comment s’est passé ton examen ?
+– « C’est dans la poche » </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le point commun entre un homme et un chat ?
+Les deux ont très peur de l’aspirateur </t>
+  </si>
+  <si>
+    <t>Pourquoi faut-il aimer son prochain ? – Parce que les autres sont loin.</t>
+  </si>
+  <si>
+    <t>Pourquoi Jésus ne peut pas jouer au foot ? Parce qu’il est suspendu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est quoi un morceau de patate qui tombe sur la planète ?
+Une météofrite </t>
+  </si>
+  <si>
+    <t>Quelle star demande toujours deux glaçon dans son verre ? Michael Douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi dit-on que les vampires sont audacieux ?
+Parce qu’ils tentent toujours le cou </t>
+  </si>
+  <si>
+    <t>Est-ce qu’un Mikado qui devient adulte Devient un Mikadulte ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sais-tu pourquoi les éléphants sont gris ?
+Pour les différencier des fraises. </t>
+  </si>
+  <si>
+    <t>2 copains : « Tien, j’ai croisé ta copine hier mais elle ne m’a pas vu  » Oui je sais, elle me l’a dit</t>
+  </si>
+  <si>
+    <t>C’est l’histoire d’un poil avant il etait bien Maintenant il est pubien….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Où porte-t-on les bretelles les plus longues ?
+A Cubas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est-ce qu’un éléphant dit à un homme tout nu ?
+« Et tu arrives à attraper des cacahuètes avec ça ? » </t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un nain qui fait du tir à l’arc ? Un Indien</t>
+  </si>
+  <si>
+    <t>Que dit un médecin à une crevette avant de l’ausculter ? Décortiquez-vous !</t>
+  </si>
+  <si>
+    <t>Quand 2 poissons s’énervent.. Est-ce qu’on peut dire que le thon monte ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment dit-on soutien-gorge en créole ?
+Sakanéné </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que dit un rouleau de papier de toilette à Luke Skywalker ?
+J’essuie ton père </t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un nem avec des écouteurs ? Un NemP3…</t>
+  </si>
+  <si>
+    <t>C’est l’histoire d’un mec qui rentre chez un antiquaire et qui dit « Bonjour, quoi de neuf ? »</t>
+  </si>
+  <si>
+    <t>– Maman ne m’attend pas ce soir – Pourquoi ?</t>
+  </si>
+  <si>
+    <t>C’est l’histoire d’une fleur qui court, qui court.. Et qui se plante</t>
+  </si>
+  <si>
+    <t>Docteur, j’ai mal au dos quand je me lève le matin… Et bien, levez-vous l’après-midi !</t>
+  </si>
+  <si>
+    <t>Quelle est la différence entre un dinar et un dollar ? Un dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est l’animal le plus généreux ?
+Le poulain, parce que quand il y en a poulain, il y en a pou l’autre. </t>
+  </si>
+  <si>
+    <t>Que font 2 brosses à dents le 14 Juillet ? Un feu dentifrice !</t>
+  </si>
+  <si>
+    <t>Pourquoi Batman aime les safaris d’Afrique ? Parce qu’il aime la brousse, Wayne</t>
+  </si>
+  <si>
+    <t>Pourquoi le patinage artistique est pénible ? Car le patin agace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si deux sourds se battent,
+ca doit être sûrement un malentendu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le nombre préféré des moustiques ?
+Le 100 </t>
+  </si>
+  <si>
+    <t>– Tu connais la blague à deux balles ? – Pan ! Pan !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la date de la fête des fumeurs ?
+Le 1er Juin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est-ce qui est noir et blanc et qui rebondit ?
+Un pingouin sur un trampoline. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi les alpinistes aiment-ils bien les blondes ?
+Parce qu’ils n’ont pas peur du vide </t>
+  </si>
+  <si>
+    <t>Qu’est ce qu’un gaspacho ? Un pet froid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que dit le juge au manchot ?
+« Allez allez, témoignons » </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deux mamans discutent :
+– J’ai perdu mon chien !
+– Faites passer une annonce !
+– Ça ne sert à rien, il ne sait pas lire </t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’on dit d’une chaussure curieuse ? Qu’elle se mêle de tout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment appelle-t-on un voleur de Viagra ?
+Un criminel endurci. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un muet dit à un sourd :
+… </t>
+  </si>
+  <si>
+    <t>Dans quel pays ne bronze-t-on pas du nez ? Au Népal</t>
+  </si>
+  <si>
+    <t>Un mec alcoolisé se fait contrôler par la police : – Bonjour Monsieur, police nationale !
+– Bien fait pour ta gueule ! T’avais qu’à travailler à l’école !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un clown arrive chez le docteur
+« Docteur, vite, je me sens tout drôle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est-ce qu’un homme avec une mitraillette dans un champ de blé ?
+Un céréales killer </t>
+  </si>
+  <si>
+    <t>Un piano à un autre : « Hey, ça va ? » L’autre : « Non, j’ai mal au do ! »</t>
+  </si>
+  <si>
+    <t>Quelle est la salade préférée des militaires ? La roquette</t>
+  </si>
+  <si>
+    <t>Quel est le comble pour un buraliste ? De se faire passer à tabac</t>
+  </si>
+  <si>
+    <t>Pourquoi les sorcières utilisent des balais pour voler ? Parce que les aspirateurs sont trop lourds !</t>
+  </si>
+  <si>
+    <t>Comment sort-on de la mer Rouge ? Mouillé !</t>
+  </si>
+  <si>
+    <t>Pourquoi quand on veut viser on ferme un œil ? Car si on fermait les deux on verrait plus rien !</t>
+  </si>
+  <si>
+    <t>Les enfants c’est comme les prouts On ne supporte que les siens</t>
+  </si>
+  <si>
+    <t>Pourquoi les noirs ont un gros nez ? Parce qu’ils ont des gros doigts</t>
+  </si>
+  <si>
+    <t>Pourquoi les citrouilles sont heureuses ? Car où qu’elles aillent, leurs potes iront !</t>
+  </si>
+  <si>
+    <t>Pourquoi Véro fait l’amour en silence ? Car Véronique Sanson</t>
+  </si>
+  <si>
+    <t>Pourquoi les bretons sont forts en barbecue ? Parce qu’ils ont des bonnes braises</t>
+  </si>
+  <si>
+    <t>C’est l’histoire d’un têtard qui croyait qu’il était tôt… Alors qu’il était tard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le point commun entre un patron et un poil ?
+Les 2 te poussent au cul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi les électriciens sont-ils les meilleurs au judo ?
+Parce qu’ils connaissent toutes les prises </t>
+  </si>
+  <si>
+    <t>– Tu connais la blague qui tue ? – Non…</t>
+  </si>
+  <si>
+    <t>Que fait un chinois sur une mobylette ? Nèèèèmmmmm, Nèèèèmmmmm, Nèèèèmmmmm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi la grenouille trempe-t-elle toujours son cul dans l’eau ?
+Pour avoir la raie nette. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On ne dit pas faire des vendanges, mais péter comme un Dieu. </t>
+  </si>
+  <si>
+    <t>J’ai fait une blague sur les magasins. Elle n’a pas supermarché</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Et David guetta.</t>
+  </si>
+  <si>
+    <t>Je suis bipolaire et je vous aime tous. Bande d’enculés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40% des accidents sont provoqués par l’alcool…
+Donc, 60% des accidents sont provoqués par des buveurs d’eau. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la différence entre un dragueur et un pêcheur ?
+As-tu déjà vu un dragueur se vanter d’avoir attrapé une grosse ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sais-tu comment le chasseur attire les lapins ?
+Il fait le cri de la carotte </t>
+  </si>
+  <si>
+    <t>Pourquoi les poissons chats s’ennuient ? Car il n’y a pas de poisson souris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la différence entre une échelle et un fusil ?
+L’échelle sert à monter et le fusil sert à descendre </t>
+  </si>
+  <si>
+    <t>Pourquoi les belges ne prennent jamais l’avion en costume ? Car c’est écrit « No Smoking »</t>
+  </si>
+  <si>
+    <t>Quel super héros mange des croquettes ? Le Dober-man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est ce qui est rouge et qui attend ?
+Mon compte en banque. </t>
+  </si>
+  <si>
+    <t>2 put** discutent : T’as demandé quoi au Père Noël toi ? Bah, 50€, comme les autres…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi Gilbert Montagné se balance-t-il lorsqu’il chante ?
+– Pour être sûr de passer au moins une fois devant le micro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est 2 putes qui se disputent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Où va le chien de traîneau pour ses vacances ?
+Il va husky </t>
+  </si>
+  <si>
+    <t>J’ai une blague sur une escalope Mais je ne sais pas ce qu’elle vaut</t>
+  </si>
+  <si>
+    <t>Quel est le poisson le moins lourd de la mer ? La palourde…</t>
+  </si>
+  <si>
+    <t>Est-ce qu’une poule peut parler anglais ? Yes chicken !</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un bus sale en Normandie ? Un sale car d’Eure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combien de fils a la mère de Justin ?
+Juste un </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quel état des États-Unis est-il illégal de se promener pieds nus ?
+Au Massachusetts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment appelle-t-on des rats qui marchent en file indienne ?
+Une rallonge… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un pneu va chez son médecin
+« Docteur, je me sens crevé » </t>
+  </si>
+  <si>
+    <t>Quel est le plat préféré de Maradona ? Les oeufs à la coque</t>
+  </si>
+  <si>
+    <t>-« J’ai acheté un nouvel appareil auditif. » -« Ah oui, tu en es content ? »</t>
+  </si>
+  <si>
+    <t>Quelles chaussures mettre pour un enterrement ? Des pompes funèbres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment tu fais pour sauver Donald Trump de la noyade ?
+Tu ne sais pas ? Tant mieux ! </t>
+  </si>
+  <si>
+    <t>Comment fait la république pour dire bonjour ? La République Tchèque</t>
+  </si>
+  <si>
+    <t>Quand les bateliers en Egypte sont en grève Les rames cessent</t>
+  </si>
+  <si>
+    <t>Quelle est la différence en Zidane et Lady Di ? Zidane, c’est accélération, petit pont, but.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand une naine veut se détendre
+Elle se fait couler un lavabo </t>
+  </si>
+  <si>
+    <t>Qu’est ce qui fait toin toin ? Un tanard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le point commun entre un piment fort et une autoroute ?
+Tu le payes à la sortie. </t>
+  </si>
+  <si>
+    <t>Un geek ne s’ennuie pas… Il se Fichier…</t>
+  </si>
+  <si>
+    <t>Où est fabriqué le viagra ? Au Boukistan</t>
+  </si>
+  <si>
+    <t>Un chameau dit a un dromadaire : – Comment ca va ? – Bien, je bosse, et toi ? – Je bosse, je bosse !</t>
+  </si>
+  <si>
+    <t>Quel est le comble pour un électricien ? D’avoir des ampoules aux pieds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce que les poissons aiment les blagues de papa ?
+Ils s’en fichent ! </t>
+  </si>
+  <si>
+    <t>2 fesses se croisent : Alors, ca gaze ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mieux vaut être onze et tristes, que Trézeguet ! </t>
+  </si>
+  <si>
+    <t>Comment appelle-t-on un cochon avec des ailes ? Un aéro porc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est 2 nombrils qui se rencontrent.
+L’un dit à l’autre : « J’pense qu’il y a une soirée en bas » </t>
+  </si>
+  <si>
+    <t>Quel est le comble pour une religieuse ? C’est d’être bonne !</t>
+  </si>
+  <si>
+    <t>C’est un bœuf, qui court… Puis qui se viande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans un restaurant, un client dit :
+– Garçon, que fait cette mouche dans ma soupe ?
+– Je pense que c’est de la brasse… mais je peux me tromper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qui fait 40 heures par semaine au bureau de poste ?
+La machine à café </t>
+  </si>
+  <si>
+    <t>C’est quoi un Pépito le soir ? Un pépitard…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le comble pour un dentiste ?
+C’est d’habiter dans un palais </t>
+  </si>
+  <si>
+    <t>Tu as déjà vu une tomate chanter ? – Non, mais j’ai déjà vu une carotte rapper !</t>
+  </si>
+  <si>
+    <t>« -Allo la police, 2 filles se battent pour moi
+-« Et alors ? » – « Bah, c’est la laide qui est en train de gagner «</t>
+  </si>
+  <si>
+    <t>Je fais des blagues de chimiste Mais je n’ai jamais de réactions…</t>
+  </si>
+  <si>
+    <t>Pourquoi les vacances en Irlande sont-elles particulièrement toniques ? Parce qu’un peu d’Eire, ca fait Dublin !</t>
+  </si>
+  <si>
+    <t>Comment appelle t’on un lion qui se rebelle ? Une rébellion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qui s’occupe de la décoration à l’Elysée ?
+Le ministère de l’intérieur </t>
+  </si>
+  <si>
+    <t>Tu connais un amputé connu ? Moignon plus</t>
+  </si>
+  <si>
+    <t>Je me suis marié deux fois, deux échecs : La première s’est barrée, la deuxième est restée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le point commun entre un community manager et une araignée ?
+Ils passent du temps sur la toile </t>
+  </si>
+  <si>
+    <t>Un gendarme arrête une automobiliste : – « Vous n’aviez pas vu le feu rouge ? » – Si, si. C’est vous que je n’avais pas vu !</t>
+  </si>
+  <si>
+    <t>Pendant l’acte, ma femme me dit : Dis-moi des choses sales ! La cuisine, la salle de bain…….bl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que dit une photocopieuse qui croise une autre photocopieuse ?
+On scannait ? </t>
+  </si>
+  <si>
+    <t>Quel est l’animal le plus malheureux ? Le taureau, parce que sa femme est vache.</t>
+  </si>
+  <si>
+    <t>Pourquoi les poissons n’ont plus de maison ? Parce qu’elles sont détruites</t>
+  </si>
+  <si>
+    <t>C’est l’histoire d’un mec qui a 5 sexes. Son slip lui va comme un gant.</t>
+  </si>
+  <si>
+    <t>Si je télécharge illégalement depuis la Martinique… Je suis un pirate des Caraïbes ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi les aveugles ne peuvent pas faire de saut à l’élastique ?
+Parce que ça traumatise le chien ! </t>
+  </si>
+  <si>
+    <t>Pourquoi les chats captent mieux ? Car ils ont la 4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que disent 2 fromages qui se prennent en photo ?
+Cheeeeese ! </t>
+  </si>
+  <si>
+    <t>Deux anges Discutent : – Quel temps fera-t-il demain ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment appelle-t-on un chat tout-terrain ?
+Un Cat-cat </t>
+  </si>
+  <si>
+    <t>Si tu jettes une imprimante dans l’eau… Elle a pas pied…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est quoi le fruit préféré des militaires ?
+La grenade </t>
+  </si>
+  <si>
+    <t>Tu connais la blague du diable ? Dommage elle est d’enfer</t>
+  </si>
+  <si>
+    <t>Quel est le repas préféré des russes ? Le steak Tsar Tsar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un monsieur demande à une dame dans la rue :
+– Avez-vous vu un policier?
+– Non !
+– Alors donnez moi votre sac à main </t>
+  </si>
+  <si>
+    <t>Pourquoi les musulmans adore les coquillages ? Parce qu’Hala pêche aux moules aux moules aux moules</t>
+  </si>
+  <si>
+    <t>Un jour Dieu dit à Casto de ramer. Et depuis, castorama</t>
+  </si>
+  <si>
+    <t>Pourquoi un cul-de-jatte cherche-t-il à acheter une maison ? Pour avoir un pied-à-terre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi ne faut-il jamais parler à un italien qui conduit ?
+Parce qu’il a besoin de ses mains. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment appelle-t-on un gorille avec une mitraillette ?
+Monsieur ! </t>
+  </si>
+  <si>
+    <t>Quelle est la différence entre tintin et milou ? Milou n’a pas de chien …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la plus belle caresse qu’une belle-mère puisse nous faire ?
+Caresse chez elle </t>
+  </si>
+  <si>
+    <t>C’est quoi ton signe astrologique ? – Poisson
+– Et en chinois ?
+– Euh…Poiton</t>
+  </si>
+  <si>
+    <t>La maman demande à Simon : Que fais-tu ?</t>
+  </si>
+  <si>
+    <t>Un mathématicien n’urine pas Il fait π π</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est ce qui est transparent et qui sent la carotte ?
+Un pet de lapin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hommes discutent :
+– On a beaucoup écrit sur moi.
+– Ah, vous êtes connu ?
+– Non, tatoué </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que dit un pistolet à une mitraillette ?
+Ça fait longtemps que tu bégayes ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">– Maman, c’est quoi de la lingerie coquine ?
+– De la hot couture ! </t>
+  </si>
+  <si>
+    <t>Je suis inquiet, je vois des points noirs. – Tu a vu l’oculiste ?
+– Non, des points noirs !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un geek ne sort pas du métro,
+il libère la rame. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la différence entre une BMW et une LADA ?
+Dans la BMW t’as l’airbag et dans la LADA t’as l’air con </t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un gendarme sur un tracteur ? Un poulet fermier</t>
+  </si>
+  <si>
+    <t>Pourquoi le lapin est bleu ? Parce qu’on l’a peint…</t>
+  </si>
+  <si>
+    <t>Que dit une noix de coco lorsqu’elle tombe a l’eau? Je me noie…</t>
+  </si>
+  <si>
+    <t>C’est quoi une pomme dauphine ? C’est celle qui a fini 2eme à Miss patate</t>
+  </si>
+  <si>
+    <t>Pourquoi les poules n’ont-elles pas de seins ? Parce que les coqs n’ont pas de main !</t>
+  </si>
+  <si>
+    <t>Pour ne plus puer de la gueule… Faut-il arrêter de dire de la merde ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que fait une ampoule quand elle grille ?
+Elle appelle à l’aide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment se reproduisent les hérissons ?
+En faisant attention. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment s’appelle le meilleur contrôleur des impôts ?
+Yvon Payer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous auriez pu me prévenir pour les clubs échangistes.
+J’ai eu l’air con avec mes cartes Pokémon. </t>
+  </si>
+  <si>
+    <t>Est-ce que si un homosexuel m’attends pour me taper C’est un gay tapant ?</t>
+  </si>
+  <si>
+    <t>2 amis : « C’est lourd un prout ? « –  » Non, c’est un gaz  »
+–  » Bah je me suis chié dessus alors… «</t>
+  </si>
+  <si>
+    <t xml:space="preserve">« C’est au moment où tu vois un moustique se poser sur tes testicules que tu te rends compte qu’il y a moyen de régler certains problèmes autrement que par la violence. »
+Lao-Tseu </t>
+  </si>
+  <si>
+    <t>Une put* chez son gynécologue, lui demandant : »Vous perdez beaucoup pendant vos règles ? Mouais, entre 1000 et 1500 balles</t>
+  </si>
+  <si>
+    <t>Que fait un poussin de 200kg ? PIOUUUU ! PIOUUUUUUU !</t>
+  </si>
+  <si>
+    <t>Un œuf attend un autre œuf : Si dans 5 minutes, il n’est pas là, j’me casse !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combien il faut d’homme pour peindre une voiture en rouge ?
+Un seul, mais il faut le lancer fort </t>
+  </si>
+  <si>
+    <t>Quel est le point commun entre une pizza brulée et une femme enceinte ? Dans les 2 cas, il y en a un qui l’a pas sorti avant</t>
+  </si>
+  <si>
+    <t>Pourquoi les indiens mettent ils leur argent en bourse ? Car ça rapporte des sioux.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Satan l’habite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quand il était petit, quel était le nom de papy Roro ?
+roro </t>
+  </si>
+  <si>
+    <t>Quel est le point commun entre un homme au réveil et un élastique ? Eh bien il s’étire, il s’étire, il s’étire, et il pète !</t>
+  </si>
+  <si>
+    <t>Où se cache Mozart ? Dans le frigo….Car Mozzarella…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le gâteau préféré des nuages ?
+L’éclair ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment appelle-t-on une fleur très occupée ?
+Une fleur over-bookée </t>
+  </si>
+  <si>
+    <t>Quel est le pluriel de « Un coca » ? Des haltères</t>
+  </si>
+  <si>
+    <t>Pourquoi n’y a-t-il pas de corbeille près des piscines ? Car la corbeille à papier</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qui n’est pas un steak ? Une pastèque</t>
+  </si>
+  <si>
+    <t>Je vends mon perroquet parlant. Pourquoi?</t>
+  </si>
+  <si>
+    <t>Que font 2 squelettes le soir de leur mariage ? La nuit de noces</t>
+  </si>
+  <si>
+    <t>Comment appelle-t-on les parents de l’homme invisible ? Les transparents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la chanteuse préférée des serruriers ?
+Alicia Keys </t>
+  </si>
+  <si>
+    <t>Quel est le comble pour un acteur obèse ? Faire un bide</t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un rat avec la queue coupée ? Un rat-courci.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 bûcherons discutent :- « Je vais rester bûcheron toute ma vie… »,
+L’autre répond : « Moi je vais changer de boulot… « </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment est mort le capitaine Crochet ?
+En se grattant les c******* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est-ce qu’un buceron ?
+Un bucheron sans H </t>
+  </si>
+  <si>
+    <t>Quelle princesse n’a jamais les lèvres gercées ? La belle au bois dormant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est un pistolet qui s’approche d’une mitraillette et qui lui dit:
+– Ca fait longtemps que tu bégayes? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le seul instrument à vent avec une corde ?
+Le string </t>
+  </si>
+  <si>
+    <t>Comment appelle-t-on une frite enceinte ? Une pomme de terre sautée</t>
+  </si>
+  <si>
+    <t>Que lisent les kangourous ? Des livres de poche.</t>
+  </si>
+  <si>
+    <t>Comment appelle-t-on un nain qui travaille à la Poste ? Un nain posteur…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les ciseaux à bois,
+les chiens aussi. </t>
+  </si>
+  <si>
+    <t>Un jour, Dieu demanda à Léonard de devenir une sci Et depuis, Leonard De Vinci…</t>
+  </si>
+  <si>
+    <t>« T’es toujours en train de me contredire, on dirait ma copine ! » – « T’as pas de copine »
+– « Tu vois ! Tu recommences ! »</t>
+  </si>
+  <si>
+    <t>Connais-tu la blague des 2 gars qui ont volé un calendrier ? Ils ont pris 6 mois chacun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est un panda qui en avait marre de la vie et un jour, il se panda… </t>
+  </si>
+  <si>
+    <t>– Docteur, je ne suis pas malade. – Ca tombe bien, je ne suis pas docteur !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est un aveugle qui rentre dans un bar, puis dans une table, puis dans une chaise, puis dans un mur, et.. </t>
+  </si>
+  <si>
+    <t>Une fille m’a appelé pour me dire « Viens chez moi, y a personne » J’ai foncé chez elle, puis j’ai sonné, mais il n’y avait personne.</t>
+  </si>
+  <si>
+    <t>Que dit Frodon devant sa maison ? C’est là que j’hobbit…</t>
+  </si>
+  <si>
+    <t>Pourquoi les Belges tirent-ils à côté du but ? Parce que les buts à l’extérieur comptent double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment appelle-t’on un ascenseur en chine?
+… en appuyant sur le bouton ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est-ce qu’un homme intelligent en Belgique ?
+Un touriste </t>
+  </si>
+  <si>
+    <t>Aux Île Canaris, il n’y a pas de canaris. C’est pareil aux îles Vierges, il n’y a pas de canaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le fromage préféré de Sherlock Holmes ?
+C’est l’emmental mon cher Watson ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deux amis discutent :
+– Depuis quelques jours je vois des points noirs !
+– Ah oui et t’as vu l’oculiste ?
+– Non, des points noirs… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qu’est-ce qui fait NIOC NIOC ?
+Un canard qui parle en verlan </t>
+  </si>
+  <si>
+    <t>Qu’est-ce qu’un chameau à trois bosses ? Un chameau qui s’est cogné…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que donnent un mouton et un cochon qui s’accouplent ?
+De la porcelaine </t>
+  </si>
+  <si>
+    <t>Quel est le seul instrument à vent à une seul corde ? Le string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docteur je crois que j’ai besoin de lunettes.
+Oui c’est certain, ici c’est une banque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment s’appelle le journal publié chaque semaine au Sahara ?
+L’hebdromadair </t>
+  </si>
+  <si>
+    <t>Quel est le légume le plus courageux ? Le pois chiche</t>
+  </si>
+  <si>
+    <t>Quelle est la différence entre un divorce et la grammaire ? En grammaire, c’est le masculin qui l’emporte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment s’appelle la mamie qui fait peur aux voleurs ?
+Mamitraillette </t>
+  </si>
+  <si>
+    <t>Est-ce qu’une bouteille de vin… Est une bouteille qui voit l’avenir ?</t>
+  </si>
+  <si>
+    <t>Quel acteur a la main verte ? Jean Dujardin</t>
+  </si>
+  <si>
+    <t>Qu’est ce qu’un chat bossu ? Un chameau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– T’as picolé, hier ?
+– Je me rappelle pas, je suis rentré bourré. </t>
+  </si>
+  <si>
+    <t>Quelle est la différence entre une femme et un doberman ? Le prix du collier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– Papa, à ton avis qui m’a donnée mon intelligence quand je suis né ?
+– Sûrement ta mère, moi j’ai encore la mienne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle sorte de melon donne du lait ?
+Le mamelon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le jeu préféré des fonctionnaires ?
+Le Mikado, car c’est le premier qui bouge qui a perdu ! </t>
+  </si>
+  <si>
+    <t>Pourquoi les livres n’ont-ils jamais froid ? Parce qu’ils ont une couverture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le jeu préféré du père Noël ?
+Le Mikado </t>
+  </si>
+  <si>
+    <t>La blague du petit dej tu la connais ? Pas de bol…..</t>
+  </si>
+  <si>
+    <t>C'est l'histoire d'un pingouin qui respire par les fesses, un jour il s'assoit… il meurt.</t>
+  </si>
+  <si>
+    <t>Comment appelle-t-on une chauve-souris avec une perruque ? Une souris.</t>
+  </si>
+  <si>
+    <t>Que dit un escargot quand il croise une limace ? « Oh la belle décapotable ».</t>
+  </si>
+  <si>
+    <t>Que fait un crocodile quand il rencontre une superbe femelle ? Il Lacoste.</t>
+  </si>
+  <si>
+    <t>C'est quoi un petit pois avec une épée face à une carotte avec une épée ? Un bon duel.</t>
+  </si>
+  <si>
+    <t>Avec quoi ramasse-t-on la papaye ? Avec la foufourche.</t>
+  </si>
+  <si>
+    <t>Pourquoi les pêcheurs ne sont pas gros ? Parce qu'ils surveillent leur ligne.</t>
+  </si>
+  <si>
+    <t>Tu connais la blague de la chaise ? Elle est tellement longue.</t>
+  </si>
+  <si>
+    <t>Pourquoi n'y a-t-il plus de mammouths sur terre ? Parce qu'il n'y a plus de pappouths…</t>
+  </si>
+  <si>
+    <t>C'est l'histoire de 2 patates qui traversent la route. L’une d’elle se fait écraser. L’autre dit : « Oh purée ! »</t>
+  </si>
+  <si>
+    <t>Pourquoi les Belges viennent-ils à la messe avec du savon ? Pour l’Ave Maria.</t>
+  </si>
+  <si>
+    <t>Il y a 3 poussins dans un nid, j'en veux deux. Qu'est-ce que je fais ? J’en pousse-un.</t>
+  </si>
+  <si>
+    <t>Qu'est ce qui n'est pas un steak ? Une pastèque.</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qui fait toin toin ? Un tanard.</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qui est vert avec une cape ? Un concombre qui imite Super Tomate.</t>
+  </si>
+  <si>
+    <t>Quelle est la mamie qui fait peur aux voleurs ? Mamie Traillette.</t>
+  </si>
+  <si>
+    <t>Comment appelle-t-on un chien qui n'a pas de pattes ? On ne l’appelle pas, on va le chercher…</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qui est vert, se déplace sous l'eau, et fait buzzzzz ? Un chou marin ruche.</t>
+  </si>
+  <si>
+    <t>Deux œufs discutent :
+– pourquoi t’es tout vert et aussi poilu ?
+– parce que j’suis un kiwi, ducon</t>
+  </si>
+  <si>
+    <t>Comment appelle-t-on un bébé éléphant né prématurément ? Un éléphant tôt</t>
   </si>
 </sst>
 </file>
@@ -467,11 +1660,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="H197" sqref="H197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B368" sqref="B368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -550,7 +1746,7 @@
         <v>45300</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -558,7 +1754,7 @@
         <v>45301</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -566,7 +1762,7 @@
         <v>45302</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -574,7 +1770,7 @@
         <v>45303</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -582,7 +1778,7 @@
         <v>45304</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -590,7 +1786,7 @@
         <v>45305</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -598,7 +1794,7 @@
         <v>45306</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -606,7 +1802,7 @@
         <v>45307</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -614,7 +1810,7 @@
         <v>45308</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -622,7 +1818,7 @@
         <v>45309</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -630,7 +1826,7 @@
         <v>45310</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -638,7 +1834,7 @@
         <v>45311</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -646,7 +1842,7 @@
         <v>45312</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -654,7 +1850,7 @@
         <v>45313</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -662,7 +1858,7 @@
         <v>45314</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -670,7 +1866,7 @@
         <v>45315</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -678,7 +1874,7 @@
         <v>45316</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -686,7 +1882,7 @@
         <v>45317</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -694,7 +1890,7 @@
         <v>45318</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -702,7 +1898,7 @@
         <v>45319</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -710,7 +1906,7 @@
         <v>45320</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -718,7 +1914,7 @@
         <v>45321</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -726,7 +1922,7 @@
         <v>45322</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -734,7 +1930,7 @@
         <v>45323</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -742,7 +1938,7 @@
         <v>45324</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -750,7 +1946,7 @@
         <v>45325</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -758,7 +1954,7 @@
         <v>45326</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -766,7 +1962,7 @@
         <v>45327</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -774,7 +1970,7 @@
         <v>45328</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -782,7 +1978,7 @@
         <v>45329</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -790,7 +1986,7 @@
         <v>45330</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -798,7 +1994,7 @@
         <v>45331</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -806,7 +2002,7 @@
         <v>45332</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -814,7 +2010,7 @@
         <v>45333</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -822,7 +2018,7 @@
         <v>45334</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -830,7 +2026,7 @@
         <v>45335</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -838,7 +2034,7 @@
         <v>45336</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -846,7 +2042,7 @@
         <v>45337</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -854,7 +2050,7 @@
         <v>45338</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -862,7 +2058,7 @@
         <v>45339</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -870,7 +2066,7 @@
         <v>45340</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -878,7 +2074,7 @@
         <v>45341</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -886,7 +2082,7 @@
         <v>45342</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -894,7 +2090,7 @@
         <v>45343</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -902,7 +2098,7 @@
         <v>45344</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -910,7 +2106,7 @@
         <v>45345</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -918,7 +2114,7 @@
         <v>45346</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -926,7 +2122,7 @@
         <v>45347</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -934,7 +2130,7 @@
         <v>45348</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -942,7 +2138,7 @@
         <v>45349</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -950,7 +2146,7 @@
         <v>45350</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -958,7 +2154,7 @@
         <v>45351</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -966,7 +2162,7 @@
         <v>45352</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -974,7 +2170,7 @@
         <v>45353</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -982,7 +2178,7 @@
         <v>45354</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -990,7 +2186,7 @@
         <v>45355</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -998,7 +2194,7 @@
         <v>45356</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1006,7 +2202,7 @@
         <v>45357</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -1014,7 +2210,7 @@
         <v>45358</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -1022,7 +2218,7 @@
         <v>45359</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -1030,7 +2226,7 @@
         <v>45360</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1038,7 +2234,7 @@
         <v>45361</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1046,7 +2242,7 @@
         <v>45362</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1054,7 +2250,7 @@
         <v>45363</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1062,7 +2258,7 @@
         <v>45364</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1070,7 +2266,7 @@
         <v>45365</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1078,7 +2274,7 @@
         <v>45366</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1086,7 +2282,7 @@
         <v>45367</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1094,7 +2290,7 @@
         <v>45368</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1102,7 +2298,7 @@
         <v>45369</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1110,7 +2306,7 @@
         <v>45370</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1118,7 +2314,7 @@
         <v>45371</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1126,7 +2322,7 @@
         <v>45372</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1134,7 +2330,7 @@
         <v>45373</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1142,7 +2338,7 @@
         <v>45374</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1150,7 +2346,7 @@
         <v>45375</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1158,7 +2354,7 @@
         <v>45376</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1166,7 +2362,7 @@
         <v>45377</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1174,7 +2370,7 @@
         <v>45378</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1182,7 +2378,7 @@
         <v>45379</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1190,7 +2386,7 @@
         <v>45380</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1198,7 +2394,7 @@
         <v>45381</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1206,7 +2402,7 @@
         <v>45382</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1214,7 +2410,7 @@
         <v>45383</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1222,7 +2418,7 @@
         <v>45384</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1230,7 +2426,7 @@
         <v>45385</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1238,7 +2434,7 @@
         <v>45386</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1246,7 +2442,7 @@
         <v>45387</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1254,7 +2450,7 @@
         <v>45388</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1262,7 +2458,7 @@
         <v>45389</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1270,7 +2466,7 @@
         <v>45390</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1278,7 +2474,7 @@
         <v>45391</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1286,7 +2482,7 @@
         <v>45392</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1294,7 +2490,7 @@
         <v>45393</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1302,7 +2498,7 @@
         <v>45394</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1310,7 +2506,7 @@
         <v>45395</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -1318,7 +2514,7 @@
         <v>45396</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1326,7 +2522,7 @@
         <v>45397</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1334,7 +2530,7 @@
         <v>45398</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1342,7 +2538,7 @@
         <v>45399</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1350,7 +2546,7 @@
         <v>45400</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -1358,7 +2554,7 @@
         <v>45401</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -1366,7 +2562,7 @@
         <v>45402</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1374,7 +2570,7 @@
         <v>45403</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1382,7 +2578,7 @@
         <v>45404</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1390,7 +2586,7 @@
         <v>45405</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1398,7 +2594,7 @@
         <v>45406</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1406,7 +2602,7 @@
         <v>45407</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1414,7 +2610,7 @@
         <v>45408</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1422,7 +2618,7 @@
         <v>45409</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -1430,7 +2626,7 @@
         <v>45410</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1438,7 +2634,7 @@
         <v>45411</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1446,7 +2642,7 @@
         <v>45412</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -1454,7 +2650,7 @@
         <v>45413</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -1462,7 +2658,7 @@
         <v>45414</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -1470,7 +2666,7 @@
         <v>45415</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -1478,7 +2674,7 @@
         <v>45416</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -1486,7 +2682,7 @@
         <v>45417</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -1494,7 +2690,7 @@
         <v>45418</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -1502,7 +2698,7 @@
         <v>45419</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -1510,7 +2706,7 @@
         <v>45420</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -1518,7 +2714,7 @@
         <v>45421</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -1526,7 +2722,7 @@
         <v>45422</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -1534,7 +2730,7 @@
         <v>45423</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -1542,7 +2738,7 @@
         <v>45424</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -1550,7 +2746,7 @@
         <v>45425</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -1558,7 +2754,7 @@
         <v>45426</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -1566,7 +2762,7 @@
         <v>45427</v>
       </c>
       <c r="B137" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -1574,7 +2770,7 @@
         <v>45428</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -1582,7 +2778,7 @@
         <v>45429</v>
       </c>
       <c r="B139" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -1590,7 +2786,7 @@
         <v>45430</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -1598,7 +2794,7 @@
         <v>45431</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -1606,7 +2802,7 @@
         <v>45432</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -1614,7 +2810,7 @@
         <v>45433</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -1622,7 +2818,7 @@
         <v>45434</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -1630,7 +2826,7 @@
         <v>45435</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -1638,7 +2834,7 @@
         <v>45436</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -1646,7 +2842,7 @@
         <v>45437</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -1654,7 +2850,7 @@
         <v>45438</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -1662,7 +2858,7 @@
         <v>45439</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -1670,7 +2866,7 @@
         <v>45440</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -1678,7 +2874,7 @@
         <v>45441</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -1686,7 +2882,7 @@
         <v>45442</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -1694,7 +2890,7 @@
         <v>45443</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -1702,7 +2898,7 @@
         <v>45444</v>
       </c>
       <c r="B154" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -1710,7 +2906,7 @@
         <v>45445</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -1718,7 +2914,7 @@
         <v>45446</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -1726,7 +2922,7 @@
         <v>45447</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -1734,7 +2930,7 @@
         <v>45448</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -1742,7 +2938,7 @@
         <v>45449</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -1750,7 +2946,7 @@
         <v>45450</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -1758,7 +2954,7 @@
         <v>45451</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -1766,7 +2962,7 @@
         <v>45452</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -1774,7 +2970,7 @@
         <v>45453</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -1782,7 +2978,7 @@
         <v>45454</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -1790,7 +2986,7 @@
         <v>45455</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -1798,7 +2994,7 @@
         <v>45456</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -1806,7 +3002,7 @@
         <v>45457</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -1814,7 +3010,7 @@
         <v>45458</v>
       </c>
       <c r="B168" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -1822,7 +3018,7 @@
         <v>45459</v>
       </c>
       <c r="B169" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -1830,7 +3026,7 @@
         <v>45460</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -1838,7 +3034,7 @@
         <v>45461</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -1846,7 +3042,7 @@
         <v>45462</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -1854,7 +3050,7 @@
         <v>45463</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -1862,7 +3058,7 @@
         <v>45464</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -1870,7 +3066,7 @@
         <v>45465</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -1878,7 +3074,7 @@
         <v>45466</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -1886,7 +3082,7 @@
         <v>45467</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -1894,7 +3090,7 @@
         <v>45468</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -1902,7 +3098,7 @@
         <v>45469</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -1910,7 +3106,7 @@
         <v>45470</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -1918,7 +3114,7 @@
         <v>45471</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -1926,7 +3122,7 @@
         <v>45472</v>
       </c>
       <c r="B182" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -1934,7 +3130,7 @@
         <v>45473</v>
       </c>
       <c r="B183" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -1942,7 +3138,7 @@
         <v>45474</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -1950,7 +3146,7 @@
         <v>45475</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -1958,7 +3154,7 @@
         <v>45476</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -1966,7 +3162,7 @@
         <v>45477</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -1974,7 +3170,7 @@
         <v>45478</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -1982,7 +3178,7 @@
         <v>45479</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -1990,7 +3186,7 @@
         <v>45480</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -1998,7 +3194,7 @@
         <v>45481</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -2006,7 +3202,7 @@
         <v>45482</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -2014,7 +3210,7 @@
         <v>45483</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -2022,7 +3218,7 @@
         <v>45484</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -2030,7 +3226,7 @@
         <v>45485</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -2038,7 +3234,7 @@
         <v>45486</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -2046,7 +3242,7 @@
         <v>45487</v>
       </c>
       <c r="B197" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -2054,7 +3250,7 @@
         <v>45488</v>
       </c>
       <c r="B198" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -2062,7 +3258,7 @@
         <v>45489</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -2070,7 +3266,7 @@
         <v>45490</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -2078,7 +3274,7 @@
         <v>45491</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -2086,7 +3282,7 @@
         <v>45492</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
@@ -2094,7 +3290,7 @@
         <v>45493</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -2102,7 +3298,7 @@
         <v>45494</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -2110,7 +3306,7 @@
         <v>45495</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -2118,7 +3314,7 @@
         <v>45496</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -2126,7 +3322,7 @@
         <v>45497</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -2134,7 +3330,7 @@
         <v>45498</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -2142,7 +3338,7 @@
         <v>45499</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -2150,7 +3346,7 @@
         <v>45500</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -2158,7 +3354,7 @@
         <v>45501</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -2166,7 +3362,7 @@
         <v>45502</v>
       </c>
       <c r="B212" t="s">
-        <v>2</v>
+        <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -2174,7 +3370,7 @@
         <v>45503</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -2182,7 +3378,7 @@
         <v>45504</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -2190,7 +3386,7 @@
         <v>45505</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -2198,7 +3394,7 @@
         <v>45506</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -2206,7 +3402,7 @@
         <v>45507</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -2214,7 +3410,7 @@
         <v>45508</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -2222,7 +3418,7 @@
         <v>45509</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -2230,7 +3426,7 @@
         <v>45510</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -2238,7 +3434,7 @@
         <v>45511</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
@@ -2246,7 +3442,7 @@
         <v>45512</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -2254,7 +3450,7 @@
         <v>45513</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -2262,7 +3458,7 @@
         <v>45514</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
@@ -2270,7 +3466,7 @@
         <v>45515</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -2278,7 +3474,7 @@
         <v>45516</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -2286,7 +3482,7 @@
         <v>45517</v>
       </c>
       <c r="B227" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -2294,7 +3490,7 @@
         <v>45518</v>
       </c>
       <c r="B228" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -2302,7 +3498,7 @@
         <v>45519</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>229</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -2310,7 +3506,7 @@
         <v>45520</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -2318,7 +3514,7 @@
         <v>45521</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -2326,7 +3522,7 @@
         <v>45522</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -2334,7 +3530,7 @@
         <v>45523</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -2342,7 +3538,7 @@
         <v>45524</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -2350,7 +3546,7 @@
         <v>45525</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
@@ -2358,7 +3554,7 @@
         <v>45526</v>
       </c>
       <c r="B236" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
@@ -2366,7 +3562,7 @@
         <v>45527</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -2374,7 +3570,7 @@
         <v>45528</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -2382,7 +3578,7 @@
         <v>45529</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -2390,7 +3586,7 @@
         <v>45530</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -2398,7 +3594,7 @@
         <v>45531</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -2406,7 +3602,7 @@
         <v>45532</v>
       </c>
       <c r="B242" t="s">
-        <v>2</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -2414,7 +3610,7 @@
         <v>45533</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
@@ -2422,7 +3618,7 @@
         <v>45534</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
@@ -2430,7 +3626,7 @@
         <v>45535</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
@@ -2438,7 +3634,7 @@
         <v>45536</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -2446,7 +3642,7 @@
         <v>45537</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>247</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
@@ -2454,7 +3650,7 @@
         <v>45538</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
@@ -2462,7 +3658,7 @@
         <v>45539</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
@@ -2470,7 +3666,7 @@
         <v>45540</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
@@ -2478,7 +3674,7 @@
         <v>45541</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
@@ -2486,7 +3682,7 @@
         <v>45542</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
@@ -2494,7 +3690,7 @@
         <v>45543</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
@@ -2502,7 +3698,7 @@
         <v>45544</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
@@ -2510,7 +3706,7 @@
         <v>45545</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
@@ -2518,7 +3714,7 @@
         <v>45546</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
@@ -2526,7 +3722,7 @@
         <v>45547</v>
       </c>
       <c r="B257" t="s">
-        <v>2</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
@@ -2534,7 +3730,7 @@
         <v>45548</v>
       </c>
       <c r="B258" t="s">
-        <v>3</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
@@ -2542,7 +3738,7 @@
         <v>45549</v>
       </c>
       <c r="B259" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
@@ -2550,7 +3746,7 @@
         <v>45550</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
@@ -2558,7 +3754,7 @@
         <v>45551</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
@@ -2566,7 +3762,7 @@
         <v>45552</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -2574,7 +3770,7 @@
         <v>45553</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
@@ -2582,7 +3778,7 @@
         <v>45554</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -2590,7 +3786,7 @@
         <v>45555</v>
       </c>
       <c r="B265" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
@@ -2598,7 +3794,7 @@
         <v>45556</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -2606,7 +3802,7 @@
         <v>45557</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
@@ -2614,7 +3810,7 @@
         <v>45558</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
@@ -2622,7 +3818,7 @@
         <v>45559</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
@@ -2630,7 +3826,7 @@
         <v>45560</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
@@ -2638,7 +3834,7 @@
         <v>45561</v>
       </c>
       <c r="B271" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
@@ -2646,7 +3842,7 @@
         <v>45562</v>
       </c>
       <c r="B272" t="s">
-        <v>2</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
@@ -2654,7 +3850,7 @@
         <v>45563</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
@@ -2662,7 +3858,7 @@
         <v>45564</v>
       </c>
       <c r="B274" t="s">
-        <v>4</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
@@ -2670,7 +3866,7 @@
         <v>45565</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
@@ -2678,7 +3874,7 @@
         <v>45566</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>276</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
@@ -2686,7 +3882,7 @@
         <v>45567</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
@@ -2694,7 +3890,7 @@
         <v>45568</v>
       </c>
       <c r="B278" t="s">
-        <v>8</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
@@ -2702,7 +3898,7 @@
         <v>45569</v>
       </c>
       <c r="B279" t="s">
-        <v>9</v>
+        <v>279</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
@@ -2710,7 +3906,7 @@
         <v>45570</v>
       </c>
       <c r="B280" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
@@ -2718,7 +3914,7 @@
         <v>45571</v>
       </c>
       <c r="B281" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
@@ -2726,7 +3922,7 @@
         <v>45572</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
@@ -2734,7 +3930,7 @@
         <v>45573</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
@@ -2742,7 +3938,7 @@
         <v>45574</v>
       </c>
       <c r="B284" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
@@ -2750,7 +3946,7 @@
         <v>45575</v>
       </c>
       <c r="B285" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
@@ -2758,7 +3954,7 @@
         <v>45576</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
@@ -2766,7 +3962,7 @@
         <v>45577</v>
       </c>
       <c r="B287" t="s">
-        <v>2</v>
+        <v>287</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
@@ -2774,7 +3970,7 @@
         <v>45578</v>
       </c>
       <c r="B288" t="s">
-        <v>3</v>
+        <v>288</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
@@ -2782,7 +3978,7 @@
         <v>45579</v>
       </c>
       <c r="B289" t="s">
-        <v>4</v>
+        <v>289</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
@@ -2790,7 +3986,7 @@
         <v>45580</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>290</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
@@ -2798,7 +3994,7 @@
         <v>45581</v>
       </c>
       <c r="B291" t="s">
-        <v>6</v>
+        <v>291</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
@@ -2806,7 +4002,7 @@
         <v>45582</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
@@ -2814,7 +4010,7 @@
         <v>45583</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
@@ -2822,7 +4018,7 @@
         <v>45584</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>294</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
@@ -2830,7 +4026,7 @@
         <v>45585</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
@@ -2838,7 +4034,7 @@
         <v>45586</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
@@ -2846,7 +4042,7 @@
         <v>45587</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>297</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
@@ -2854,7 +4050,7 @@
         <v>45588</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
@@ -2862,7 +4058,7 @@
         <v>45589</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>299</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
@@ -2870,7 +4066,7 @@
         <v>45590</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>300</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
@@ -2878,7 +4074,7 @@
         <v>45591</v>
       </c>
       <c r="B301" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
@@ -2886,7 +4082,7 @@
         <v>45592</v>
       </c>
       <c r="B302" t="s">
-        <v>2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
@@ -2894,7 +4090,7 @@
         <v>45593</v>
       </c>
       <c r="B303" t="s">
-        <v>3</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
@@ -2902,7 +4098,7 @@
         <v>45594</v>
       </c>
       <c r="B304" t="s">
-        <v>4</v>
+        <v>304</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
@@ -2910,7 +4106,7 @@
         <v>45595</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>305</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
@@ -2918,7 +4114,7 @@
         <v>45596</v>
       </c>
       <c r="B306" t="s">
-        <v>6</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
@@ -2926,7 +4122,7 @@
         <v>45597</v>
       </c>
       <c r="B307" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
@@ -2934,7 +4130,7 @@
         <v>45598</v>
       </c>
       <c r="B308" t="s">
-        <v>8</v>
+        <v>308</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
@@ -2942,7 +4138,7 @@
         <v>45599</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>309</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
@@ -2950,7 +4146,7 @@
         <v>45600</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
@@ -2958,7 +4154,7 @@
         <v>45601</v>
       </c>
       <c r="B311" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
@@ -2966,7 +4162,7 @@
         <v>45602</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
@@ -2974,7 +4170,7 @@
         <v>45603</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
@@ -2982,7 +4178,7 @@
         <v>45604</v>
       </c>
       <c r="B314" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
@@ -2990,7 +4186,7 @@
         <v>45605</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
@@ -2998,7 +4194,7 @@
         <v>45606</v>
       </c>
       <c r="B316" t="s">
-        <v>16</v>
+        <v>316</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
@@ -3006,7 +4202,7 @@
         <v>45607</v>
       </c>
       <c r="B317" t="s">
-        <v>2</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -3014,7 +4210,7 @@
         <v>45608</v>
       </c>
       <c r="B318" t="s">
-        <v>3</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
@@ -3022,7 +4218,7 @@
         <v>45609</v>
       </c>
       <c r="B319" t="s">
-        <v>4</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
@@ -3030,7 +4226,7 @@
         <v>45610</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
@@ -3038,7 +4234,7 @@
         <v>45611</v>
       </c>
       <c r="B321" t="s">
-        <v>6</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
@@ -3046,7 +4242,7 @@
         <v>45612</v>
       </c>
       <c r="B322" t="s">
-        <v>7</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
@@ -3054,7 +4250,7 @@
         <v>45613</v>
       </c>
       <c r="B323" t="s">
-        <v>8</v>
+        <v>323</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
@@ -3062,7 +4258,7 @@
         <v>45614</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
@@ -3070,7 +4266,7 @@
         <v>45615</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
@@ -3078,7 +4274,7 @@
         <v>45616</v>
       </c>
       <c r="B326" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
@@ -3086,7 +4282,7 @@
         <v>45617</v>
       </c>
       <c r="B327" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
@@ -3094,7 +4290,7 @@
         <v>45618</v>
       </c>
       <c r="B328" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
@@ -3102,7 +4298,7 @@
         <v>45619</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
@@ -3110,7 +4306,7 @@
         <v>45620</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
@@ -3118,7 +4314,7 @@
         <v>45621</v>
       </c>
       <c r="B331" t="s">
-        <v>16</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
@@ -3126,7 +4322,7 @@
         <v>45622</v>
       </c>
       <c r="B332" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
@@ -3134,7 +4330,7 @@
         <v>45623</v>
       </c>
       <c r="B333" t="s">
-        <v>3</v>
+        <v>333</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
@@ -3142,7 +4338,7 @@
         <v>45624</v>
       </c>
       <c r="B334" t="s">
-        <v>4</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
@@ -3150,7 +4346,7 @@
         <v>45625</v>
       </c>
       <c r="B335" t="s">
-        <v>5</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
@@ -3158,7 +4354,7 @@
         <v>45626</v>
       </c>
       <c r="B336" t="s">
-        <v>6</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
@@ -3166,7 +4362,7 @@
         <v>45627</v>
       </c>
       <c r="B337" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
@@ -3174,7 +4370,7 @@
         <v>45628</v>
       </c>
       <c r="B338" t="s">
-        <v>8</v>
+        <v>338</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
@@ -3182,7 +4378,7 @@
         <v>45629</v>
       </c>
       <c r="B339" t="s">
-        <v>9</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
@@ -3190,7 +4386,7 @@
         <v>45630</v>
       </c>
       <c r="B340" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
@@ -3198,7 +4394,7 @@
         <v>45631</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
@@ -3206,7 +4402,7 @@
         <v>45632</v>
       </c>
       <c r="B342" t="s">
-        <v>12</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
@@ -3214,7 +4410,7 @@
         <v>45633</v>
       </c>
       <c r="B343" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
@@ -3222,7 +4418,7 @@
         <v>45634</v>
       </c>
       <c r="B344" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
@@ -3230,7 +4426,7 @@
         <v>45635</v>
       </c>
       <c r="B345" t="s">
-        <v>15</v>
+        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
@@ -3238,7 +4434,7 @@
         <v>45636</v>
       </c>
       <c r="B346" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
@@ -3246,7 +4442,7 @@
         <v>45637</v>
       </c>
       <c r="B347" t="s">
-        <v>2</v>
+        <v>347</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
@@ -3254,7 +4450,7 @@
         <v>45638</v>
       </c>
       <c r="B348" t="s">
-        <v>3</v>
+        <v>348</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
@@ -3262,23 +4458,23 @@
         <v>45639</v>
       </c>
       <c r="B349" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>45640</v>
       </c>
-      <c r="B350" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B350" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>45641</v>
       </c>
-      <c r="B351" t="s">
-        <v>6</v>
+      <c r="B351" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
@@ -3286,7 +4482,7 @@
         <v>45642</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>352</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
@@ -3294,7 +4490,7 @@
         <v>45643</v>
       </c>
       <c r="B353" t="s">
-        <v>8</v>
+        <v>353</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
@@ -3302,7 +4498,7 @@
         <v>45644</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>354</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
@@ -3310,7 +4506,7 @@
         <v>45645</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>355</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
@@ -3318,7 +4514,7 @@
         <v>45646</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
@@ -3326,7 +4522,7 @@
         <v>45647</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>357</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
@@ -3334,7 +4530,7 @@
         <v>45648</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>358</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
@@ -3342,7 +4538,7 @@
         <v>45649</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>359</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
@@ -3350,7 +4546,7 @@
         <v>45650</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>360</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
@@ -3358,7 +4554,7 @@
         <v>45651</v>
       </c>
       <c r="B361" t="s">
-        <v>16</v>
+        <v>361</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
@@ -3366,7 +4562,7 @@
         <v>45652</v>
       </c>
       <c r="B362" t="s">
-        <v>2</v>
+        <v>362</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
@@ -3374,7 +4570,7 @@
         <v>45653</v>
       </c>
       <c r="B363" t="s">
-        <v>3</v>
+        <v>363</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
@@ -3382,7 +4578,7 @@
         <v>45654</v>
       </c>
       <c r="B364" t="s">
-        <v>4</v>
+        <v>364</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
@@ -3390,15 +4586,15 @@
         <v>45655</v>
       </c>
       <c r="B365" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="232" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>45656</v>
       </c>
-      <c r="B366" t="s">
-        <v>6</v>
+      <c r="B366" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
@@ -3406,7 +4602,7 @@
         <v>45657</v>
       </c>
       <c r="B367" t="s">
-        <v>7</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/calendrier_blagues_anniv_2024.xlsx
+++ b/calendrier_blagues_anniv_2024.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://8advisory-my.sharepoint.com/personal/aina_rabesandratana_8advisory_com/Documents/Code Python/Polo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{8598E1B6-B5D5-4BD9-889D-3782D241382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B8FBB6A-7238-492A-BA49-81329DA221CA}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{8598E1B6-B5D5-4BD9-889D-3782D241382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0AE8A3D-CD82-4E1B-A7B9-4A1078A19C2A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1661,7 +1664,7 @@
   <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B368" sqref="B368"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4606,6 +4609,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Aptos"&amp;11&amp;KFF0000 Distribution : Restricted&amp;1#_x000D_</oddHeader>
